--- a/FL_DataSet/FL_coordinates_test.xlsx
+++ b/FL_DataSet/FL_coordinates_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\FL_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4AD99C-2CAD-4F23-B6D0-B0D7458DE1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A501A096-8248-4E55-A7AA-73DC03085C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="H408" sqref="H408"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -414,314 +414,314 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>30.372693182424079</v>
+        <v>26.751484945285188</v>
       </c>
       <c r="B2">
-        <v>-87.16704598770319</v>
+        <v>-80.086988452635268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>26.39211232330377</v>
+        <v>28.50010820095763</v>
       </c>
       <c r="B3">
-        <v>-80.167827875678839</v>
+        <v>-81.411217740681948</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>26.65269775463215</v>
+        <v>26.343831337754249</v>
       </c>
       <c r="B4">
-        <v>-81.86217276394396</v>
+        <v>-80.088705802267739</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>27.332618949537309</v>
+        <v>26.12583005381671</v>
       </c>
       <c r="B5">
-        <v>-82.502657980896657</v>
+        <v>-81.758820651537675</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>26.732656859867909</v>
+        <v>30.39193722304357</v>
       </c>
       <c r="B6">
-        <v>-80.031539041846415</v>
+        <v>-84.302878797815467</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>27.792860968515988</v>
+        <v>27.944666505521791</v>
       </c>
       <c r="B7">
-        <v>-82.620483688298307</v>
+        <v>-82.780028800138268</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>30.353644490633261</v>
+        <v>29.60811911783853</v>
       </c>
       <c r="B8">
-        <v>-81.634916270158115</v>
+        <v>-82.284211878325763</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>26.18806955785443</v>
+        <v>25.777250022079581</v>
       </c>
       <c r="B9">
-        <v>-81.776926128372821</v>
+        <v>-80.218978644509818</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>30.409941515378101</v>
+        <v>27.962474519925891</v>
       </c>
       <c r="B10">
-        <v>-87.169219135420363</v>
+        <v>-82.410009649996965</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>27.92310267973652</v>
+        <v>26.149218894360182</v>
       </c>
       <c r="B11">
-        <v>-82.7816285159183</v>
+        <v>-80.159115082023675</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>28.540933081368269</v>
+        <v>27.792180494181881</v>
       </c>
       <c r="B12">
-        <v>-81.409460110667979</v>
+        <v>-82.621089362909743</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>26.602770376987049</v>
+        <v>29.615416108680169</v>
       </c>
       <c r="B13">
-        <v>-81.905791131786756</v>
+        <v>-82.281236379682426</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>27.92442291221268</v>
+        <v>30.438367658212599</v>
       </c>
       <c r="B14">
-        <v>-82.758507655169069</v>
+        <v>-87.216566890321531</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>30.43873474929396</v>
+        <v>28.556518242073949</v>
       </c>
       <c r="B15">
-        <v>-87.179191936298011</v>
+        <v>-81.396874676680696</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>27.809260493794699</v>
+        <v>26.150669965664068</v>
       </c>
       <c r="B16">
-        <v>-82.595212117920539</v>
+        <v>-81.775607568290923</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>26.14884939150236</v>
+        <v>27.775843457419409</v>
       </c>
       <c r="B17">
-        <v>-81.771033688394041</v>
+        <v>-82.651712571539207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>29.610969599702042</v>
+        <v>27.94990778850778</v>
       </c>
       <c r="B18">
-        <v>-82.358834401404764</v>
+        <v>-82.755862552085858</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>28.526840119131322</v>
+        <v>27.96485288070242</v>
       </c>
       <c r="B19">
-        <v>-81.368313857551001</v>
+        <v>-82.826091856147698</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>27.999280554161409</v>
+        <v>28.577779443190579</v>
       </c>
       <c r="B20">
-        <v>-82.425983871161861</v>
+        <v>-81.421589521371516</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>27.727589705248121</v>
+        <v>26.158493340618321</v>
       </c>
       <c r="B21">
-        <v>-82.653166420581456</v>
+        <v>-81.787856213143456</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>29.659689507199271</v>
+        <v>27.942637184274702</v>
       </c>
       <c r="B22">
-        <v>-82.333142868285847</v>
+        <v>-82.42548703053653</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>27.987377814697979</v>
+        <v>27.764947866875531</v>
       </c>
       <c r="B23">
-        <v>-82.408292311872572</v>
+        <v>-82.673966886191252</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>30.438396772827488</v>
+        <v>30.450310655533599</v>
       </c>
       <c r="B24">
-        <v>-84.247787408003077</v>
+        <v>-87.176621450636389</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>27.750936620244431</v>
+        <v>28.457760093905051</v>
       </c>
       <c r="B25">
-        <v>-82.656770195198206</v>
+        <v>-82.607774056229175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>30.458641270319951</v>
+        <v>28.348568383980609</v>
       </c>
       <c r="B26">
-        <v>-87.190812402190943</v>
+        <v>-82.71044567449843</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26.356707644308781</v>
+        <v>25.60708021553528</v>
       </c>
       <c r="B27">
-        <v>-80.116380281077326</v>
+        <v>-80.320849473176736</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>30.454777999909361</v>
+        <v>25.570395980720811</v>
       </c>
       <c r="B28">
-        <v>-87.196864582933941</v>
+        <v>-80.361814822581437</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>26.144856505589299</v>
+        <v>28.632372740401919</v>
       </c>
       <c r="B29">
-        <v>-80.149745313386163</v>
+        <v>-81.297601962916886</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26.363430170613519</v>
+        <v>28.622018064559569</v>
       </c>
       <c r="B30">
-        <v>-80.160790838547285</v>
+        <v>-81.355678929723936</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>28.559561083899251</v>
+        <v>26.60757034525551</v>
       </c>
       <c r="B31">
-        <v>-81.428394111618346</v>
+        <v>-81.637410453091263</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30.48114464140502</v>
+        <v>30.340885704977779</v>
       </c>
       <c r="B32">
-        <v>-84.290676588731245</v>
+        <v>-81.584654849626446</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>30.371796428251269</v>
+        <v>30.297780839828171</v>
       </c>
       <c r="B33">
-        <v>-87.205345245788024</v>
+        <v>-81.412502806666609</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>27.901092708690971</v>
+        <v>29.641474998944052</v>
       </c>
       <c r="B34">
-        <v>-82.420570845888491</v>
+        <v>-81.690599044103948</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>27.383408135919989</v>
+        <v>25.678989675305591</v>
       </c>
       <c r="B35">
-        <v>-82.510982932661506</v>
+        <v>-80.328767595666719</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>29.62966037833262</v>
+        <v>25.688855954370609</v>
       </c>
       <c r="B36">
-        <v>-82.326241704971295</v>
+        <v>-80.443150781879055</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>26.086676474568431</v>
+        <v>25.937735662130269</v>
       </c>
       <c r="B37">
-        <v>-80.170861826619102</v>
+        <v>-80.184971553904219</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>30.322527898392291</v>
+        <v>27.223890582255521</v>
       </c>
       <c r="B38">
-        <v>-81.612243265876202</v>
+        <v>-80.228509246671464</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>26.330603727745611</v>
+        <v>30.306779227591029</v>
       </c>
       <c r="B39">
-        <v>-80.108100603992952</v>
+        <v>-81.769796165787923</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>27.90932876867171</v>
+        <v>27.80244228628683</v>
       </c>
       <c r="B40">
-        <v>-82.496112155796965</v>
+        <v>-82.667241532896753</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
